--- a/Model results.xlsx
+++ b/Model results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C0B4029-7229-4816-90D5-A4FF31EE4421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF4CCA-49CD-44A5-B599-D9CED2C885F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
+    <workbookView xWindow="12953" yWindow="1627" windowWidth="19200" windowHeight="10073" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Pre-processed</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>best parameters</t>
+  </si>
+  <si>
+    <t>u=832, 288, lr=0.001, d=0.05, 0.0</t>
+  </si>
+  <si>
+    <t>u=960, 128, lr=0.01, d=0.5, 0.15</t>
+  </si>
+  <si>
+    <t>u=960, 448, lr=0.01, d=0.0, 0.15</t>
+  </si>
+  <si>
+    <t>96, 96, lr=0.001, d=0.3, 0.1</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'degree': 1, 'gamma': 0.1, 'kernel': 'sigmoid'}</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -288,74 +303,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,13 +698,13 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.8203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.64453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.76171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.76171875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.29296875" customWidth="1"/>
@@ -703,159 +718,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="23" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A2" s="21"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="22"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" ht="43" x14ac:dyDescent="0.5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>0.73678137776983399</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>0.52788158648810601</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>0.77869079045909895</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>0.77317108113250099</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>0.76682784966997697</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>0.76393012940123906</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <v>0.75208932011600205</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>0.74878759319997801</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="15">
         <f>MAX(C4,F4,I4,L4)</f>
         <v>0.77869079045909895</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="15">
         <f>MAX(D4,G4,J4,M4)</f>
         <v>0.77317108113250099</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>0.73616950000993098</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>0.52624914090478903</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="4">
@@ -864,7 +879,7 @@
       <c r="G5" s="3">
         <v>0.85281994703183595</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="3">
@@ -873,7 +888,7 @@
       <c r="J5" s="4">
         <v>0.85252659960056398</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="5">
@@ -882,86 +897,104 @@
       <c r="M5" s="5">
         <v>0.84595063358244704</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="18">
         <f t="shared" ref="N5:N8" si="0">MAX(C5,F5,I5,L5)</f>
         <v>0.84562825853999701</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="18">
         <f t="shared" ref="O5:O8" si="1">MAX(D5,G5,J5,M5)</f>
         <v>0.85281994703183595</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:15" ht="43" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16">
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16">
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.72130544106591998</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.70129870129870098</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.65297950763356405</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.71236805824076199</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
+        <v>0.72130544106591998</v>
+      </c>
+      <c r="O8" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Model results.xlsx
+++ b/Model results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF4CCA-49CD-44A5-B599-D9CED2C885F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D05F13-0B3D-45FF-829D-8CDE3884E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12953" yWindow="1627" windowWidth="19200" windowHeight="10073" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -295,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -372,6 +373,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +700,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -999,6 +1001,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="N9" s="26">
+        <f>MAX(N4:N8)</f>
+        <v>0.84562825853999701</v>
+      </c>
+      <c r="O9" s="26">
+        <f>MAX(O4:O8)</f>
+        <v>0.85281994703183595</v>
+      </c>
+    </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.5">
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1046,4 +1058,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AFE730-3669-401B-AC89-C65E038D7768}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model results.xlsx
+++ b/Model results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D05F13-0B3D-45FF-829D-8CDE3884E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5649F3A-30EB-4B80-A645-4E39049D635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
+    <workbookView xWindow="10940" yWindow="1540" windowWidth="19200" windowHeight="10073" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Pre-processed</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>{'C': 10, 'degree': 1, 'gamma': 0.1, 'kernel': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'C': 100, 'degree': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 800}</t>
   </si>
 </sst>
 </file>
@@ -352,6 +361,7 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,7 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,7 +709,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -720,57 +729,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="19" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
@@ -807,8 +816,8 @@
       <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="1:15" ht="43" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
@@ -915,36 +924,70 @@
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="14">
+        <v>0.73863480000652304</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.52853606882422999</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.83169428256074696</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.83573553630159803</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.84100971945423098</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.84548251908156102</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.83373638443577003</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.83994293845344803</v>
+      </c>
       <c r="N6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.84100971945423098</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+        <v>0.84548251908156102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="B7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.73387205387205301</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.74568926384783096</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.79</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -953,11 +996,11 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.74568926384783096</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
@@ -1002,11 +1045,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="N9" s="26">
+      <c r="N9" s="19">
         <f>MAX(N4:N8)</f>
         <v>0.84562825853999701</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="19">
         <f>MAX(O4:O8)</f>
         <v>0.85281994703183595</v>
       </c>

--- a/Model results.xlsx
+++ b/Model results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5649F3A-30EB-4B80-A645-4E39049D635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A66C0-D56B-4771-8240-BA97C365822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="1540" windowWidth="19200" windowHeight="10073" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Pre-processed</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 800}</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100}</t>
   </si>
 </sst>
 </file>
@@ -305,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -382,6 +388,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,8 +415,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDEC8EE"/>
       <color rgb="FFEFE5F7"/>
-      <color rgb="FFDEC8EE"/>
       <color rgb="FFCEAEE6"/>
       <color rgb="FFC39BE1"/>
       <color rgb="FFB381D9"/>
@@ -709,7 +733,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -832,7 +856,7 @@
       <c r="D4" s="15">
         <v>0.52788158648810601</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="6">
@@ -887,16 +911,16 @@
       <c r="F5" s="4">
         <v>0.84452170790494296</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>0.85281994703183595</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="32">
         <v>0.84562825853999701</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="32">
         <v>0.85252659960056398</v>
       </c>
       <c r="K5" s="17" t="s">
@@ -939,7 +963,7 @@
       <c r="G6" s="5">
         <v>0.83573553630159803</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="28" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="3">
@@ -974,29 +998,35 @@
         <v>28</v>
       </c>
       <c r="C7" s="18">
-        <v>0.73387205387205301</v>
+        <v>0.762418893861466</v>
       </c>
       <c r="D7" s="18">
         <v>0.8</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="18">
-        <v>0.74568926384783096</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="F7" s="30">
+        <v>0.88586463556529005</v>
+      </c>
+      <c r="G7" s="30">
         <v>0.79</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="H7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.88441665169336103</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.79</v>
+      </c>
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18">
         <f t="shared" si="0"/>
-        <v>0.74568926384783096</v>
+        <v>0.88586463556529005</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="1"/>
@@ -1007,34 +1037,42 @@
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>0.72130544106591998</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="5">
         <v>0.70129870129870098</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="14">
         <v>0.65297950763356405</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="K8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="4">
         <v>0.71236805824076199</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N8" s="14">
         <f t="shared" si="0"/>
         <v>0.72130544106591998</v>
@@ -1047,7 +1085,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="N9" s="19">
         <f>MAX(N4:N8)</f>
-        <v>0.84562825853999701</v>
+        <v>0.88586463556529005</v>
       </c>
       <c r="O9" s="19">
         <f>MAX(O4:O8)</f>

--- a/Model results.xlsx
+++ b/Model results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A66C0-D56B-4771-8240-BA97C365822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA86EE-50C0-4172-8ABE-5AC54FC0D89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Pre-processed</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>{'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 1200}</t>
   </si>
 </sst>
 </file>
@@ -368,6 +371,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,24 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +736,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -753,57 +756,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="20" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
@@ -840,8 +843,8 @@
       <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="43" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
@@ -856,7 +859,7 @@
       <c r="D4" s="15">
         <v>0.52788158648810601</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="6">
@@ -914,13 +917,13 @@
       <c r="G5" s="4">
         <v>0.85281994703183595</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="25">
         <v>0.84562825853999701</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="25">
         <v>0.85252659960056398</v>
       </c>
       <c r="K5" s="17" t="s">
@@ -963,7 +966,7 @@
       <c r="G6" s="5">
         <v>0.83573553630159803</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="3">
@@ -1003,13 +1006,13 @@
       <c r="D7" s="18">
         <v>0.8</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="23">
         <v>0.88586463556529005</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="23">
         <v>0.79</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -1021,9 +1024,15 @@
       <c r="J7" s="4">
         <v>0.79</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="K7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.875186382568092</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.79</v>
+      </c>
       <c r="N7" s="18">
         <f t="shared" si="0"/>
         <v>0.88586463556529005</v>
@@ -1037,7 +1046,7 @@
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3">

--- a/Model results.xlsx
+++ b/Model results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA86EE-50C0-4172-8ABE-5AC54FC0D89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1AF22F-89AD-4573-BD54-E0C6C1356975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
@@ -383,12 +383,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,6 +403,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +736,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -756,57 +756,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="30"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
@@ -843,8 +843,8 @@
       <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" ht="43" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
@@ -895,7 +895,7 @@
         <v>0.77317108113250099</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" ht="43" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -917,13 +917,13 @@
       <c r="G5" s="4">
         <v>0.85281994703183595</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <v>0.84562825853999701</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>0.85252659960056398</v>
       </c>
       <c r="K5" s="17" t="s">
@@ -1001,41 +1001,41 @@
         <v>28</v>
       </c>
       <c r="C7" s="18">
-        <v>0.762418893861466</v>
+        <v>0.73387205387205301</v>
       </c>
       <c r="D7" s="18">
         <v>0.8</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="23">
-        <v>0.88586463556529005</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="32">
+        <v>0.74568926384783096</v>
+      </c>
+      <c r="G7" s="32">
         <v>0.79</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="4">
-        <v>0.88441665169336103</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="3">
+        <v>0.74739281244412603</v>
+      </c>
+      <c r="J7" s="3">
         <v>0.79</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="5">
-        <v>0.875186382568092</v>
+        <v>0.74464934178146802</v>
       </c>
       <c r="M7" s="5">
         <v>0.79</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" si="0"/>
-        <v>0.88586463556529005</v>
+        <v>0.74739281244412603</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="1"/>
@@ -1094,7 +1094,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="N9" s="19">
         <f>MAX(N4:N8)</f>
-        <v>0.88586463556529005</v>
+        <v>0.84562825853999701</v>
       </c>
       <c r="O9" s="19">
         <f>MAX(O4:O8)</f>

--- a/Model results.xlsx
+++ b/Model results.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1AF22F-89AD-4573-BD54-E0C6C1356975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259950C-BDBB-47F7-B2CB-CAE7F2334D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
-  <si>
-    <t>Pre-processed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Dataset Used</t>
   </si>
@@ -49,16 +45,10 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>SVC</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
     <t>ANN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classifier Used </t>
   </si>
   <si>
     <t>Borderline-SMOTE Oversampling</t>
@@ -121,28 +111,31 @@
     <t>{'C': 100, 'degree': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
   </si>
   <si>
-    <t>{'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 800}</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>{'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100}</t>
+    <t>SVM</t>
   </si>
   <si>
-    <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 1200}</t>
+    <t>{'max_depth': 25, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>No Oversampling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,18 +169,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEC8EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -322,55 +309,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -380,36 +339,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,8 +430,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEFE5F7"/>
       <color rgb="FFDEC8EE"/>
-      <color rgb="FFEFE5F7"/>
       <color rgb="FFCEAEE6"/>
       <color rgb="FFC39BE1"/>
       <color rgb="FFB381D9"/>
@@ -434,6 +446,1988 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Maximum weighted f1-score per algorithm </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72834817064655699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73616950000993098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71545530309755501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76141982484693405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72130544106591998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0847-4900-9836-2EE81AB7C596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:axId val="881759696"/>
+        <c:axId val="881761776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="881759696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="881761776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="881761776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="881759696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RF: Weighted F1-SCORE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$12:$P$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Oversampling</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMOTE Oversampling</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Borderline-SMOTE Oversampling</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ADASYN Oversampling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$12:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.72802308802308702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76141982484693405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74044574351479697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74568926384783096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F4F-41CB-A8A2-FAAE16AD1DB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="879698112"/>
+        <c:axId val="879696864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="879698112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879696864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="879696864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="879698112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="99000">
+          <a:schemeClr val="bg1"/>
+        </a:gs>
+        <a:gs pos="98000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="61000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2E5C9F-8D6D-4890-B82F-5F18812871B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>755649</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1953682</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48682</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56992CE6-46D8-4A0A-9D9F-D91CC544F217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,404 +2727,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54676BF1-EF85-4E50-8388-7178238CD503}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.46875" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.64453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.29296875" customWidth="1"/>
-    <col min="6" max="7" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.9375" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.29296875" customWidth="1"/>
-    <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.3515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.9375" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.17578125" customWidth="1"/>
-    <col min="12" max="12" width="11.76171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.87890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.3515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.9375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="37"/>
+      <c r="B2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="38"/>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="33"/>
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="1:17" ht="43" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28"/>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="1:15" ht="43" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.73678137776983399</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.72834817064655699</v>
+      </c>
+      <c r="D4" s="23">
         <v>0.52788158648810601</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.77869079045909895</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.72473935017913305</v>
+      </c>
+      <c r="G4" s="23">
         <v>0.77317108113250099</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.76682784966997697</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.718955466378146</v>
+      </c>
+      <c r="J4" s="23">
         <v>0.76393012940123906</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0.75208932011600205</v>
-      </c>
-      <c r="M4" s="8">
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.71960545122587605</v>
+      </c>
+      <c r="M4" s="23">
         <v>0.74878759319997801</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <f>MAX(C4,F4,I4,L4)</f>
-        <v>0.77869079045909895</v>
-      </c>
-      <c r="O4" s="15">
+        <v>0.72834817064655699</v>
+      </c>
+      <c r="O4" s="23">
         <f>MAX(D4,G4,J4,M4)</f>
         <v>0.77317108113250099</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43" x14ac:dyDescent="0.5">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="18">
+    <row r="5" spans="1:17" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17">
         <v>0.73616950000993098</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="24">
         <v>0.52624914090478903</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.84452170790494296</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.69757528748266495</v>
+      </c>
+      <c r="G5" s="24">
         <v>0.85281994703183595</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0.84562825853999701</v>
-      </c>
-      <c r="J5" s="23">
+      <c r="H5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.70672134882661197</v>
+      </c>
+      <c r="J5" s="26">
         <v>0.85252659960056398</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.83929236234357096</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="K5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.70962389781125201</v>
+      </c>
+      <c r="M5" s="24">
         <v>0.84595063358244704</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="15">
         <f t="shared" ref="N5:N8" si="0">MAX(C5,F5,I5,L5)</f>
-        <v>0.84562825853999701</v>
-      </c>
-      <c r="O5" s="18">
+        <v>0.73616950000993098</v>
+      </c>
+      <c r="O5" s="24">
         <f t="shared" ref="O5:O8" si="1">MAX(D5,G5,J5,M5)</f>
         <v>0.85281994703183595</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
+    <row r="6" spans="1:17" ht="43" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.73863480000652304</v>
-      </c>
-      <c r="D6" s="14">
+        <v>23</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.71545530309755501</v>
+      </c>
+      <c r="D6" s="24">
         <v>0.52853606882422999</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.83169428256074696</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.68509144005261302</v>
+      </c>
+      <c r="G6" s="24">
         <v>0.83573553630159803</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.84100971945423098</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.69241642508895596</v>
+      </c>
+      <c r="J6" s="24">
         <v>0.84548251908156102</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.83373638443577003</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="K6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.68962435414048295</v>
+      </c>
+      <c r="M6" s="24">
         <v>0.83994293845344803</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="16">
         <f t="shared" si="0"/>
-        <v>0.84100971945423098</v>
-      </c>
-      <c r="O6" s="14">
+        <v>0.71545530309755501</v>
+      </c>
+      <c r="O6" s="24">
         <f t="shared" si="1"/>
         <v>0.84548251908156102</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:17" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.72802308802308702</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18">
-        <v>0.73387205387205301</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="F7" s="20">
+        <v>0.76141982484693405</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.74044574351479697</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="32">
+      <c r="L7" s="15">
         <v>0.74568926384783096</v>
       </c>
-      <c r="G7" s="32">
+      <c r="M7" s="24">
         <v>0.79</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.74739281244412603</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.74464934178146802</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="N7" s="18">
-        <f t="shared" si="0"/>
-        <v>0.74739281244412603</v>
-      </c>
-      <c r="O7" s="18">
+      <c r="N7" s="15">
+        <f>MAX(C7,F7,I7,L7)</f>
+        <v>0.76141982484693405</v>
+      </c>
+      <c r="O7" s="24">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="8" spans="1:17" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17">
         <v>0.72130544106591998</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.70129870129870098</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.65297950763356405</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.70129870129870098</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0.65297950763356405</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="16">
+        <v>0.71236805824076199</v>
+      </c>
+      <c r="M8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="4">
-        <v>0.71236805824076199</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="14">
+      <c r="N8" s="16">
         <f t="shared" si="0"/>
         <v>0.72130544106591998</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="N9" s="19">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="N9" s="30">
         <f>MAX(N4:N8)</f>
-        <v>0.84562825853999701</v>
-      </c>
-      <c r="O9" s="19">
+        <v>0.76141982484693405</v>
+      </c>
+      <c r="O9" s="29">
         <f>MAX(O4:O8)</f>
         <v>0.85281994703183595</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="P12" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0.72802308802308702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="P13" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0.76141982484693405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="P14" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>0.74044574351479697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="P15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0.74568926384783096</v>
+      </c>
+    </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J20" s="1"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J21" s="1"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J22" s="1"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J23" s="1"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J24" s="1"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J25" s="1"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J26" s="1"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J27" s="1"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="1"/>
     </row>
   </sheetData>
@@ -1147,19 +3177,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AFE730-3669-401B-AC89-C65E038D7768}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Model results.xlsx
+++ b/Model results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259950C-BDBB-47F7-B2CB-CAE7F2334D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9621B49B-ED27-4A08-BC8B-A0020EA4A161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
@@ -391,6 +391,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,7 +422,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1147,10 +1147,7 @@
           <a:schemeClr val="bg1"/>
         </a:gs>
         <a:gs pos="98000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="45000"/>
-            <a:lumOff val="55000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:gs>
         <a:gs pos="61000">
           <a:schemeClr val="accent3">
@@ -1162,6 +1159,1669 @@
       <a:lin ang="5400000" scaled="1"/>
       <a:tileRect/>
     </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Maximum weighted f1-score per algorithm </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7050182008062401E-2"/>
+                  <c:y val="-6.2630459576065764E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A5B9-426D-A119-7AF53308141E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4503492874383856E-2"/>
+                  <c:y val="-4.5929003689114893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A5B9-426D-A119-7AF53308141E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4503492874383856E-2"/>
+                  <c:y val="4.1753639717377174E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A5B9-426D-A119-7AF53308141E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9410114607026814E-2"/>
+                  <c:y val="-3.7578275745639454E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A5B9-426D-A119-7AF53308141E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1956803740705338E-2"/>
+                  <c:y val="6.2630459576065764E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A5B9-426D-A119-7AF53308141E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72834817064655699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73616950000993098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71545530309755501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76141982484693405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72130544106591998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5B9-426D-A119-7AF53308141E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1390213920"/>
+        <c:axId val="1390215168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1390213920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1390215168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1390215168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1390213920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weighted F1-Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34838188976377954"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>No Oversampling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5763998250218721E-2"/>
+                  <c:y val="-6.2465368912219349E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10131955380577427"/>
+                  <c:y val="9.4942038495188064E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3195538057742782E-3"/>
+                  <c:y val="-5.3206109652960049E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72834817064655699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73616950000993098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71545530309755501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72802308802308702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72130544106591998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACE9-4790-A7A2-417D7AA28C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SMOTE Oversampling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5763998250218721E-2"/>
+                  <c:y val="6.7164260717410246E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.013779527559055E-3"/>
+                  <c:y val="3.9386482939632629E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72473935017913305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69757528748266495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68509144005261302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76141982484693405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70129870129870098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACE9-4790-A7A2-417D7AA28C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Borderline-SMOTE Oversampling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.6528871391076115E-3"/>
+                  <c:y val="0.13660870516185478"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4582239720036013E-3"/>
+                  <c:y val="-6.9098133566637505E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.718955466378146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70672134882661197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69241642508895596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74044574351479697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65297950763356405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACE9-4790-A7A2-417D7AA28C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ADASYN Oversampling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8541776027996503E-2"/>
+                  <c:y val="7.179389034703991E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5763998250218721E-2"/>
+                  <c:y val="-3.4687591134441531E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5763998250218825E-2"/>
+                  <c:y val="7.1793890347039951E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8124890638670066E-2"/>
+                  <c:y val="-3.931722076407116E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7915573053368333E-3"/>
+                  <c:y val="-2.2801837270340782E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-ACE9-4790-A7A2-417D7AA28C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.71960545122587605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70962389781125201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68962435414048295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74568926384783096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71236805824076199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACE9-4790-A7A2-417D7AA28C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1312239840"/>
+        <c:axId val="1312234432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1312239840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312234432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1312234432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312239840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -1268,6 +2928,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
@@ -2349,6 +4089,1060 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2393,16 +5187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>755649</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175682</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>35982</xdr:rowOff>
+      <xdr:rowOff>10582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1953682</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>429682</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>48682</xdr:rowOff>
+      <xdr:rowOff>23282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2422,6 +5216,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313265</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B39FF9-9448-4367-9E74-9C2B6ABBFB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C56E674-F74F-4249-9583-F0BBA3430FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2729,8 +5595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54676BF1-EF85-4E50-8388-7178238CD503}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2754,57 +5620,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="31" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2841,8 +5707,8 @@
       <c r="M3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="36"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
@@ -3100,7 +5966,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P12" s="41" t="s">
+      <c r="P12" s="31" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="15">
@@ -3108,7 +5974,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P13" s="41" t="s">
+      <c r="P13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q13" s="20">
@@ -3116,7 +5982,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="31" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="15">
@@ -3124,7 +5990,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="Q15" s="15">
